--- a/Summaries/D1/Bayern Munich_RB Leipzig_adv.xlsx
+++ b/Summaries/D1/Bayern Munich_RB Leipzig_adv.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
   <si>
     <t>Div</t>
   </si>
@@ -293,88 +293,94 @@
     <t>D1</t>
   </si>
   <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
     <t>Bayern Munich</t>
   </si>
   <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
     <t>Mainz</t>
   </si>
   <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
+    <t>0-0</t>
+  </si>
+  <si>
     <t>1-0</t>
   </si>
   <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
     <t>1-1</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>8-0</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>8-1</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-7</t>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>7-1</t>
   </si>
   <si>
     <t>Y</t>
@@ -383,46 +389,46 @@
     <t>N</t>
   </si>
   <si>
-    <t>Dortmund-Bayern Munich</t>
-  </si>
-  <si>
-    <t>Bayern Munich-Heidenheim</t>
-  </si>
-  <si>
-    <t>Mainz-Bayern Munich</t>
-  </si>
-  <si>
-    <t>Bayern Munich-RB Leipzig</t>
-  </si>
-  <si>
-    <t>RB Leipzig-Wolfsburg</t>
-  </si>
-  <si>
-    <t>Holstein Kiel-RB Leipzig</t>
-  </si>
-  <si>
-    <t>RB Leipzig-Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
+    <t>Bayern Munich-Werder Bremen</t>
+  </si>
+  <si>
+    <t>Leverkusen-Bayern Munich</t>
+  </si>
+  <si>
+    <t>Bayern Munich-Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Stuttgart-Bayern Munich</t>
+  </si>
+  <si>
+    <t>RB Leipzig-St Pauli</t>
+  </si>
+  <si>
+    <t>Augsburg-RB Leipzig</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Heidenheim</t>
+  </si>
+  <si>
+    <t>RB Leipzig-Mainz</t>
   </si>
   <si>
     <t>Sören Storks</t>
   </si>
   <si>
-    <t>Frank Willenborg</t>
-  </si>
-  <si>
     <t>Daniel Siebert</t>
   </si>
   <si>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Florian Badstübner</t>
+  </si>
+  <si>
     <t>Martin Petersen</t>
-  </si>
-  <si>
-    <t>Florian Badstübner</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
   </si>
 </sst>
 </file>
@@ -737,103 +743,103 @@
         <v>92</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>45626.0</v>
+        <v>45695.0</v>
       </c>
       <c r="D2" t="s">
         <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L2" t="n">
-        <v>4.67</v>
+        <v>1.09</v>
       </c>
       <c r="M2" t="n">
-        <v>4.38</v>
+        <v>12.89</v>
       </c>
       <c r="N2" t="n">
-        <v>1.68</v>
+        <v>20.27</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7.0</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.0</v>
-      </c>
       <c r="AE2" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ2" t="n">
         <v>4.0</v>
@@ -842,103 +848,103 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AM2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AN2" t="n">
-        <v>112.0</v>
+        <v>228.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>85.0</v>
+        <v>28.0</v>
       </c>
       <c r="AQ2" t="n">
         <v>40.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>400.0</v>
+        <v>300.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>80.0</v>
+        <v>120.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>200.0</v>
+        <v>280.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>3400.0</v>
+        <v>1120.0</v>
       </c>
       <c r="AV2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1596.0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>10.0</v>
       </c>
-      <c r="AW2" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>425.0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>560.0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>20.0</v>
-      </c>
       <c r="BR2" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="BS2" t="n">
         <v>40.0</v>
@@ -947,40 +953,40 @@
         <v>0.0</v>
       </c>
       <c r="BU2" t="n">
-        <v>166.0</v>
+        <v>85.0</v>
       </c>
       <c r="BV2" t="n">
         <v>0.0</v>
       </c>
       <c r="BW2" t="n">
-        <v>181.0</v>
+        <v>170.0</v>
       </c>
       <c r="BX2" t="n">
         <v>0.0</v>
       </c>
       <c r="BY2" t="n">
-        <v>166.0</v>
+        <v>85.0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>181.0</v>
+        <v>170.0</v>
       </c>
       <c r="CA2" t="n">
-        <v>347.0</v>
+        <v>255.0</v>
       </c>
       <c r="CB2" t="n">
-        <v>71.0</v>
+        <v>85.0</v>
       </c>
       <c r="CC2" t="n">
-        <v>88.0</v>
+        <v>54.0</v>
       </c>
       <c r="CD2" t="n">
-        <v>71.0</v>
+        <v>54.0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="CF2" t="n">
-        <v>65.0</v>
+        <v>106.0</v>
       </c>
     </row>
     <row r="3">
@@ -991,64 +997,64 @@
         <v>92</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>45633.0</v>
+        <v>45703.0</v>
       </c>
       <c r="D3" t="s">
         <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L3" t="n">
-        <v>1.09</v>
+        <v>3.08</v>
       </c>
       <c r="M3" t="n">
-        <v>14.33</v>
+        <v>3.71</v>
       </c>
       <c r="N3" t="n">
-        <v>22.78</v>
+        <v>2.27</v>
       </c>
       <c r="O3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="S3" t="n">
         <v>2.0</v>
       </c>
       <c r="T3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.0</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="W3" t="n">
         <v>0.0</v>
@@ -1057,184 +1063,184 @@
         <v>0.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z3" t="n">
         <v>0.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>5.0</v>
       </c>
-      <c r="AC3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="AK3" t="n">
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AM3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AN3" t="n">
-        <v>383.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>150.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ3" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN3" t="n">
         <v>10.0</v>
       </c>
-      <c r="AR3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1500.0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>900.0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>1200.0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>3064.0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>480.0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0.0</v>
-      </c>
       <c r="BO3" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BQ3" t="n">
         <v>10.0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BS3" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0</v>
+        <v>600.0</v>
       </c>
       <c r="BU3" t="n">
-        <v>87.0</v>
+        <v>105.0</v>
       </c>
       <c r="BV3" t="n">
         <v>0.0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0</v>
+        <v>166.0</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0</v>
       </c>
       <c r="BY3" t="n">
-        <v>87.0</v>
+        <v>105.0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0</v>
+        <v>166.0</v>
       </c>
       <c r="CA3" t="n">
-        <v>87.0</v>
+        <v>271.0</v>
       </c>
       <c r="CB3" t="n">
-        <v>87.0</v>
+        <v>11.0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="CD3" t="n">
-        <v>87.0</v>
+        <v>11.0</v>
       </c>
       <c r="CE3" t="n">
         <v>0.0</v>
       </c>
       <c r="CF3" t="n">
-        <v>119.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="4">
@@ -1245,169 +1251,169 @@
         <v>92</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>45640.0</v>
+        <v>45711.0</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="U4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA4" t="n">
         <v>8.0</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AB4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC4" t="n">
         <v>4.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3.0</v>
       </c>
       <c r="AD4" t="n">
         <v>5.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AK4" t="n">
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AM4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AN4" t="n">
-        <v>188.0</v>
+        <v>279.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>24.0</v>
+        <v>87.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>600.0</v>
+        <v>100.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>150.0</v>
+        <v>80.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>250.0</v>
+        <v>100.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>1200.0</v>
+        <v>1740.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>72.0</v>
+        <v>348.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>120.0</v>
+        <v>435.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>940.0</v>
+        <v>1395.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>750.0</v>
+        <v>400.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.0</v>
+        <v>3.8</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>87.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
       <c r="BF4" t="n">
         <v>0.0</v>
@@ -1422,10 +1428,10 @@
         <v>0.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL4" t="n">
         <v>0.0</v>
@@ -1443,46 +1449,46 @@
         <v>0.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="BR4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BS4" t="n">
         <v>20.0</v>
       </c>
-      <c r="BS4" t="n">
-        <v>50.0</v>
-      </c>
       <c r="BT4" t="n">
         <v>0.0</v>
       </c>
       <c r="BU4" t="n">
-        <v>235.0</v>
+        <v>77.0</v>
       </c>
       <c r="BV4" t="n">
         <v>0.0</v>
       </c>
       <c r="BW4" t="n">
-        <v>173.0</v>
+        <v>80.0</v>
       </c>
       <c r="BX4" t="n">
         <v>0.0</v>
       </c>
       <c r="BY4" t="n">
-        <v>235.0</v>
+        <v>77.0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>173.0</v>
+        <v>80.0</v>
       </c>
       <c r="CA4" t="n">
-        <v>408.0</v>
+        <v>157.0</v>
       </c>
       <c r="CB4" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="CC4" t="n">
-        <v>78.0</v>
+        <v>80.0</v>
       </c>
       <c r="CD4" t="n">
-        <v>49.0</v>
+        <v>77.0</v>
       </c>
       <c r="CE4" t="n">
         <v>0.0</v>
@@ -1499,175 +1505,175 @@
         <v>92</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>45646.0</v>
+        <v>45716.0</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R5" t="n">
         <v>3.0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="O5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>9.0</v>
-      </c>
       <c r="S5" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="U5" t="n">
         <v>5.0</v>
       </c>
       <c r="V5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1500.0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>3360.0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2330.0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3200.0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BF5" t="n">
         <v>2.0</v>
       </c>
-      <c r="W5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>217.0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>420.0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>630.0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9380.0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>804.0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1206.0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1953.0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>3780.0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>1.0</v>
-      </c>
       <c r="BG5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="BH5" t="n">
         <v>0.0</v>
@@ -1676,10 +1682,10 @@
         <v>0.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="BL5" t="n">
         <v>0.0</v>
@@ -1688,61 +1694,61 @@
         <v>0.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="BP5" t="n">
         <v>20.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="BR5" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="BT5" t="n">
-        <v>1000.0</v>
+        <v>1200.0</v>
       </c>
       <c r="BU5" t="n">
-        <v>281.0</v>
+        <v>319.0</v>
       </c>
       <c r="BV5" t="n">
         <v>0.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>85.0</v>
+        <v>218.0</v>
       </c>
       <c r="BX5" t="n">
         <v>0.0</v>
       </c>
       <c r="BY5" t="n">
-        <v>281.0</v>
+        <v>319.0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>85.0</v>
+        <v>218.0</v>
       </c>
       <c r="CA5" t="n">
-        <v>366.0</v>
+        <v>537.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="CC5" t="n">
-        <v>26.0</v>
+        <v>59.0</v>
       </c>
       <c r="CD5" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
       <c r="CE5" t="n">
         <v>0.0</v>
       </c>
       <c r="CF5" t="n">
-        <v>152.0</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="6">
@@ -1753,175 +1759,175 @@
         <v>92</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>45626.0</v>
+        <v>45697.0</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="s">
         <v>103</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="s">
         <v>103</v>
       </c>
       <c r="L6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>4.17</v>
+        <v>4.39</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>5.81</v>
       </c>
       <c r="O6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="R6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="T6" t="n">
         <v>4.0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8.0</v>
       </c>
       <c r="U6" t="n">
         <v>2.0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="X6" t="n">
         <v>0.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AI6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AM6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AN6" t="n">
-        <v>261.0</v>
+        <v>51.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>71.0</v>
+        <v>40.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>30.0</v>
+        <v>65.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>180.0</v>
+        <v>130.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>300.0</v>
+        <v>585.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>2130.0</v>
+        <v>2600.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>60.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>426.0</v>
+        <v>80.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>710.0</v>
+        <v>360.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>2610.0</v>
+        <v>459.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1800.0</v>
+        <v>1170.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>82.0</v>
+        <v>16.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
       <c r="BF6" t="n">
         <v>1.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH6" t="n">
         <v>0.0</v>
@@ -1936,7 +1942,7 @@
         <v>1.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM6" t="n">
         <v>0.0</v>
@@ -1945,58 +1951,58 @@
         <v>10.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>10.0</v>
+        <v>35.0</v>
       </c>
       <c r="BR6" t="n">
         <v>10.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="BT6" t="n">
-        <v>200.0</v>
+        <v>900.0</v>
       </c>
       <c r="BU6" t="n">
-        <v>78.0</v>
+        <v>67.0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.0</v>
+        <v>138.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="BX6" t="n">
         <v>0.0</v>
       </c>
       <c r="BY6" t="n">
-        <v>78.0</v>
+        <v>205.0</v>
       </c>
       <c r="BZ6" t="n">
-        <v>57.0</v>
+        <v>69.0</v>
       </c>
       <c r="CA6" t="n">
-        <v>135.0</v>
+        <v>274.0</v>
       </c>
       <c r="CB6" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="CC6" t="n">
-        <v>57.0</v>
+        <v>11.0</v>
       </c>
       <c r="CD6" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="CE6" t="n">
         <v>0.0</v>
       </c>
       <c r="CF6" t="n">
-        <v>135.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="7">
@@ -2007,7 +2013,7 @@
         <v>92</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>45633.0</v>
+        <v>45702.0</v>
       </c>
       <c r="D7" t="s">
         <v>97</v>
@@ -2019,157 +2025,157 @@
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R7" t="n">
         <v>2.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" t="n">
         <v>17.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.0</v>
       </c>
       <c r="AE7" t="n">
         <v>24.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AH7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AI7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK7" t="n">
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="s">
         <v>135</v>
       </c>
       <c r="AN7" t="n">
-        <v>96.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>70.0</v>
+        <v>30.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>1200.0</v>
+        <v>200.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>140.0</v>
+        <v>0.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>490.0</v>
+        <v>510.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>3430.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>98.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>343.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>672.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>980.0</v>
+        <v>0.0</v>
       </c>
       <c r="BA7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BB7" t="n">
         <v>1.2</v>
       </c>
-      <c r="BB7" t="n">
-        <v>1.6</v>
-      </c>
       <c r="BC7" t="n">
         <v>0.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="BF7" t="n">
         <v>1.0</v>
@@ -2184,10 +2190,10 @@
         <v>0.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="BL7" t="n">
         <v>0.0</v>
@@ -2205,52 +2211,52 @@
         <v>10.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="BR7" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="BS7" t="n">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
       <c r="BT7" t="n">
-        <v>600.0</v>
+        <v>200.0</v>
       </c>
       <c r="BU7" t="n">
-        <v>260.0</v>
+        <v>88.0</v>
       </c>
       <c r="BV7" t="n">
         <v>0.0</v>
       </c>
       <c r="BW7" t="n">
-        <v>213.0</v>
+        <v>62.0</v>
       </c>
       <c r="BX7" t="n">
         <v>0.0</v>
       </c>
       <c r="BY7" t="n">
-        <v>260.0</v>
+        <v>88.0</v>
       </c>
       <c r="BZ7" t="n">
-        <v>213.0</v>
+        <v>62.0</v>
       </c>
       <c r="CA7" t="n">
-        <v>473.0</v>
+        <v>150.0</v>
       </c>
       <c r="CB7" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="CC7" t="n">
-        <v>56.0</v>
+        <v>62.0</v>
       </c>
       <c r="CD7" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="CE7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="CF7" t="n">
-        <v>96.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -2261,61 +2267,61 @@
         <v>92</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45641.0</v>
+        <v>45711.0</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
         <v>2.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I8" t="n">
         <v>1.0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L8" t="n">
-        <v>2.11</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>3.92</v>
+        <v>5.61</v>
       </c>
       <c r="N8" t="n">
-        <v>3.29</v>
+        <v>8.22</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="S8" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="T8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>3.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.0</v>
       </c>
       <c r="V8" t="n">
         <v>3.0</v>
@@ -2327,109 +2333,109 @@
         <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA8" t="n">
         <v>15.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AI8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AJ8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="AO8" t="n">
         <v>4.0</v>
       </c>
-      <c r="AK8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>3.0</v>
-      </c>
       <c r="AP8" t="n">
-        <v>62.0</v>
+        <v>76.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>300.0</v>
+        <v>900.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>120.0</v>
+        <v>240.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>520.0</v>
+        <v>660.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>2480.0</v>
+        <v>4560.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>39.0</v>
+        <v>44.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>186.0</v>
+        <v>304.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>806.0</v>
+        <v>836.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>1430.0</v>
+        <v>1408.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1560.0</v>
+        <v>2640.0</v>
       </c>
       <c r="BA8" t="n">
         <v>1.9</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="BC8" t="n">
-        <v>19.0</v>
+        <v>47.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>40.0</v>
+        <v>6.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH8" t="n">
         <v>0.0</v>
@@ -2441,7 +2447,7 @@
         <v>1.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BL8" t="n">
         <v>0.0</v>
@@ -2450,61 +2456,61 @@
         <v>0.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BQ8" t="n">
         <v>10.0</v>
       </c>
       <c r="BR8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BS8" t="n">
         <v>30.0</v>
       </c>
-      <c r="BS8" t="n">
-        <v>40.0</v>
-      </c>
       <c r="BT8" t="n">
-        <v>0.0</v>
+        <v>900.0</v>
       </c>
       <c r="BU8" t="n">
-        <v>70.0</v>
+        <v>116.0</v>
       </c>
       <c r="BV8" t="n">
         <v>0.0</v>
       </c>
       <c r="BW8" t="n">
-        <v>199.0</v>
+        <v>159.0</v>
       </c>
       <c r="BX8" t="n">
         <v>0.0</v>
       </c>
       <c r="BY8" t="n">
-        <v>70.0</v>
+        <v>116.0</v>
       </c>
       <c r="BZ8" t="n">
-        <v>199.0</v>
+        <v>159.0</v>
       </c>
       <c r="CA8" t="n">
-        <v>269.0</v>
+        <v>275.0</v>
       </c>
       <c r="CB8" t="n">
-        <v>70.0</v>
+        <v>6.0</v>
       </c>
       <c r="CC8" t="n">
-        <v>50.0</v>
+        <v>15.0</v>
       </c>
       <c r="CD8" t="n">
-        <v>50.0</v>
+        <v>6.0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="CF8" t="n">
-        <v>104.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="9">
@@ -2515,250 +2521,250 @@
         <v>92</v>
       </c>
       <c r="C9" t="n" s="2">
-        <v>45646.0</v>
+        <v>45717.0</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="O9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>2.0</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AB9" t="n">
+      <c r="AK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>888.0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>10.0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>217.0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>420.0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>630.0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9380.0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>804.0</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>1206.0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>1953.0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>3780.0</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>40.0</v>
       </c>
       <c r="BR9" t="n">
         <v>10.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="BT9" t="n">
-        <v>1000.0</v>
+        <v>0.0</v>
       </c>
       <c r="BU9" t="n">
-        <v>281.0</v>
+        <v>52.0</v>
       </c>
       <c r="BV9" t="n">
         <v>0.0</v>
       </c>
       <c r="BW9" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0</v>
       </c>
       <c r="BY9" t="n">
-        <v>281.0</v>
+        <v>52.0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="CA9" t="n">
-        <v>366.0</v>
+        <v>140.0</v>
       </c>
       <c r="CB9" t="n">
-        <v>20.0</v>
+        <v>52.0</v>
       </c>
       <c r="CC9" t="n">
-        <v>26.0</v>
+        <v>88.0</v>
       </c>
       <c r="CD9" t="n">
-        <v>20.0</v>
+        <v>52.0</v>
       </c>
       <c r="CE9" t="n">
         <v>0.0</v>
       </c>
       <c r="CF9" t="n">
-        <v>152.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="10">
@@ -2769,250 +2775,250 @@
         <v>92</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>45646.0</v>
+        <v>45717.0</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="N10" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="O10" t="s">
-        <v>105</v>
-      </c>
-      <c r="P10" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.0</v>
-      </c>
       <c r="U10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>2.0</v>
       </c>
-      <c r="W10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>7.0</v>
-      </c>
       <c r="AK10" t="n">
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="n">
-        <v>198.0</v>
+        <v>128.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>88.625</v>
+        <v>41.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>47.5</v>
+        <v>45.625</v>
       </c>
       <c r="AR10" t="n">
-        <v>587.5</v>
+        <v>575.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>196.25</v>
+        <v>118.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>387.5</v>
+        <v>424.375</v>
       </c>
       <c r="AU10" t="n">
-        <v>4112.5</v>
+        <v>1815.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>36.75</v>
+        <v>20.875</v>
       </c>
       <c r="AW10" t="n">
-        <v>432.5</v>
+        <v>144.375</v>
       </c>
       <c r="AX10" t="n">
-        <v>752.0</v>
+        <v>337.875</v>
       </c>
       <c r="AY10" t="n">
-        <v>1647.75</v>
+        <v>1009.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1691.25</v>
+        <v>1091.25</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.8375</v>
+        <v>2.0749999999999997</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.2125000000000001</v>
+        <v>0.8625</v>
       </c>
       <c r="BC10" t="n">
-        <v>23.625</v>
+        <v>28.375</v>
       </c>
       <c r="BD10" t="n">
-        <v>37.125</v>
+        <v>12.875</v>
       </c>
       <c r="BE10" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>33.125</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>113.625</v>
+      </c>
+      <c r="BV10" t="n">
         <v>17.25</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BW10" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>130.875</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>257.375</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>37.375</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="CE10" t="n">
         <v>0.5</v>
       </c>
-      <c r="BG10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>1.625</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>350.0</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>182.25</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>124.125</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>182.25</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>124.125</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>306.375</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>47.25</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>47.625</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>44.75</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0.125</v>
-      </c>
       <c r="CF10" t="n">
-        <v>113.5</v>
+        <v>93.0</v>
       </c>
     </row>
   </sheetData>
